--- a/fujimi-gamebook/checklist.xlsx
+++ b/fujimi-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fujimi-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D64F5-A55B-C247-B349-54E52243A74A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3274353-0D3D-8B41-B519-4B41DCDA0618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{28801664-8CDC-BD45-BDED-0E88B39C2FBF}"/>
   </bookViews>
@@ -318,9 +318,6 @@
     <t>Moonshae Saga 4: The Prophecy of the Dead Queen</t>
   </si>
   <si>
-    <t>moonshae4.jpeg</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>9-4</t>
+  </si>
+  <si>
+    <t>moonshae4.jpg</t>
   </si>
 </sst>
 </file>
@@ -833,10 +833,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1222,48 +1225,48 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1271,22 +1274,22 @@
         <v>1989</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1294,160 +1297,160 @@
         <v>1989</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1455,22 +1458,22 @@
         <v>1986</v>
       </c>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1478,22 +1481,22 @@
         <v>1986</v>
       </c>
       <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,22 +1504,22 @@
         <v>1986</v>
       </c>
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1524,22 +1527,22 @@
         <v>1987</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1547,16 +1550,16 @@
         <v>1987</v>
       </c>
       <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1568,16 +1571,16 @@
         <v>1989</v>
       </c>
       <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
         <v>123</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
       </c>
       <c r="F33" t="s">
         <v>73</v>
@@ -1591,16 +1594,16 @@
         <v>1991</v>
       </c>
       <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
         <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>128</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1612,22 +1615,22 @@
         <v>1986</v>
       </c>
       <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1635,22 +1638,22 @@
         <v>1986</v>
       </c>
       <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
         <v>133</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>134</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1658,22 +1661,22 @@
         <v>1986</v>
       </c>
       <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>138</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1681,22 +1684,22 @@
         <v>1987</v>
       </c>
       <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/fujimi-gamebook/checklist.xlsx
+++ b/fujimi-gamebook/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fujimi-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3274353-0D3D-8B41-B519-4B41DCDA0618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702D2263-08B8-8747-B303-867EECC77C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{28801664-8CDC-BD45-BDED-0E88B39C2FBF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
   <si>
     <t>year</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>moonshae4.jpg</t>
+  </si>
+  <si>
+    <t>ウィザーズ・クエスト</t>
+  </si>
+  <si>
+    <t>Wizard's Quest</t>
+  </si>
+  <si>
+    <t>wizards_quest.jpg</t>
+  </si>
+  <si>
+    <t>8-6</t>
   </si>
 </sst>
 </file>
@@ -830,14 +842,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936D4B54-47A7-B043-A3E3-261E7D62574D}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1547,113 +1561,113 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1986</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,44 +1675,67 @@
         <v>1986</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>1986</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>1987</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>140</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>142</v>
       </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>143</v>
       </c>
     </row>

--- a/fujimi-gamebook/checklist.xlsx
+++ b/fujimi-gamebook/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fujimi-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702D2263-08B8-8747-B303-867EECC77C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47080373-C056-7543-82A7-9E252C2083A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{28801664-8CDC-BD45-BDED-0E88B39C2FBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -477,10 +477,10 @@
     <t>Wizard's Quest</t>
   </si>
   <si>
-    <t>wizards_quest.jpg</t>
-  </si>
-  <si>
     <t>8-6</t>
+  </si>
+  <si>
+    <t>wizards-quest.jpg</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1573,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">

--- a/fujimi-gamebook/checklist.xlsx
+++ b/fujimi-gamebook/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fujimi-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47080373-C056-7543-82A7-9E252C2083A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0AAAA7-1484-BF4D-B7AC-3293D1A77B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{28801664-8CDC-BD45-BDED-0E88B39C2FBF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
   <si>
     <t>year</t>
   </si>
@@ -276,75 +276,9 @@
     <t>revenge_of_red_dragon.jpg</t>
   </si>
   <si>
-    <t>ムーンシェイ・サーガ〈1〉魔獣よみがえる</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 1: Revive the Beast</t>
-  </si>
-  <si>
-    <t>moonshae1.jpg</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>ムーンシェイ・サーガ〈2〉竪琴と一角獣</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 2: Lyre and Unicorn</t>
-  </si>
-  <si>
-    <t>moonshae2.jpg</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>ムーンシェイ・サーガ〈3〉七人の黒魔術師</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 3: Seven Black Magicians</t>
-  </si>
-  <si>
-    <t>moonshae3.jpg</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>ムーンシェイ・サーガ〈4〉死せる王妃の預言</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 4: The Prophecy of the Dead Queen</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>ムーンシェイ・サーガ〈5〉猫の爪・豹の牙</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 5: Cat's Claws, Panther's Fangs</t>
-  </si>
-  <si>
-    <t>moonshae5.jpg</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>ムーンシェイ・サーガ〈6〉暗黒の解放</t>
-  </si>
-  <si>
-    <t>Moonshae Saga 6: The Release of Darkness</t>
-  </si>
-  <si>
-    <t>moonshae6.jpg</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
     <t>魔境遊撃隊―ナイルの呼び声</t>
   </si>
   <si>
@@ -466,9 +400,6 @@
   </si>
   <si>
     <t>9-4</t>
-  </si>
-  <si>
-    <t>moonshae4.jpg</t>
   </si>
   <si>
     <t>ウィザーズ・クエスト</t>
@@ -842,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936D4B54-47A7-B043-A3E3-261E7D62574D}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A22" sqref="A22:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,94 +1262,94 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1426,160 +1357,156 @@
         <v>1990</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1986</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,156 +1514,22 @@
         <v>1987</v>
       </c>
       <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1989</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1991</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1986</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1986</v>
-      </c>
-      <c r="B37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1986</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1987</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
